--- a/simlab_sensitivity_analysis/sensitive_sample_point.xlsx
+++ b/simlab_sensitivity_analysis/sensitive_sample_point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\simlab_sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F63E369-0C7F-4FA4-9C1D-73261EF8CDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4234ACBA-35F4-4912-8E4F-86C771AF599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,58 +131,59 @@
     <t>wheat_local</t>
   </si>
   <si>
+    <t>Winter_wheat_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice_local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hubei_rice_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻壤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summercrop_start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-7-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety_name_summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_summer_fertilizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_summer_fertilizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_summer_fertilizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>431708C202009271001</t>
-  </si>
-  <si>
-    <t>Winter_wheat_103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-10-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rice_local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hubei_rice_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ec3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻壤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summercrop_start_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-7-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>variety_name_summer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N_summer_fertilizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_summer_fertilizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_summer_fertilizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,14 +513,14 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -549,10 +550,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -615,13 +616,13 @@
         <v>26</v>
       </c>
       <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>44</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>45</v>
       </c>
       <c r="AG1" t="s">
         <v>27</v>
@@ -638,7 +639,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>113.02623</v>
@@ -650,19 +651,19 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -710,13 +711,13 @@
         <v>209.51175360000002</v>
       </c>
       <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>38</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
       </c>
       <c r="AA2">
         <f>(AG2+$AJ2*0.23)*0.4</f>

--- a/simlab_sensitivity_analysis/sensitive_sample_point.xlsx
+++ b/simlab_sensitivity_analysis/sensitive_sample_point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\simlab_sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4234ACBA-35F4-4912-8E4F-86C771AF599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CECAC00-4934-4923-950E-3EA6F80CC5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,28 +720,28 @@
         <v>38</v>
       </c>
       <c r="AA2">
+        <f>(AG2+$AJ2*0.23)*0.6</f>
+        <v>313.37982805799999</v>
+      </c>
+      <c r="AB2">
+        <f>(AH2+$AJ2*0.1)*0.6</f>
+        <v>171.30639485999998</v>
+      </c>
+      <c r="AC2">
+        <f>(AI2+$AJ2*0.12)*0.6</f>
+        <v>171.02233555200002</v>
+      </c>
+      <c r="AD2">
         <f>(AG2+$AJ2*0.23)*0.4</f>
         <v>208.91988537200001</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f>(AH2+$AJ2*0.1)*0.4</f>
         <v>114.20426324</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f>(AI2+$AJ2*0.12)*0.4</f>
         <v>114.01489036800001</v>
-      </c>
-      <c r="AD2">
-        <f>(AG2+$AJ2*0.23)*0.6</f>
-        <v>313.37982805799999</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" ref="AE2:AF2" si="0">(AH2+$AJ2*0.23)*0.6</f>
-        <v>226.78740025800002</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>217.96780165800001</v>
       </c>
       <c r="AG2">
         <v>358.70187700000002</v>
